--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/choerodon-message-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/choerodon-message-category-lov.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463D6ED7-783E-4F90-A7B8-51CBD471B0A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,12 +21,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="188">
   <si>
     <r>
       <rPr>
@@ -2403,13 +2402,24 @@
   </si>
   <si>
     <t>市场应用通知</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>VINDICATOR-FAILED-NOTICE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台重要事件失败通过</t>
+  </si>
+  <si>
+    <t>平台重要事件失败通过</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20">
     <font>
       <sz val="12"/>
@@ -2678,7 +2688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2750,10 +2760,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3093,7 +3106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3334,11 +3347,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="M16" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -4329,13 +4342,13 @@
       <c r="N29" t="s">
         <v>77</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="37">
         <v>14</v>
       </c>
       <c r="Q29" t="s">
         <v>99</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="37">
         <v>1</v>
       </c>
     </row>
@@ -4371,13 +4384,13 @@
       <c r="N30" t="s">
         <v>77</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="37">
         <v>7</v>
       </c>
       <c r="Q30" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="37">
         <v>1</v>
       </c>
     </row>
@@ -4413,128 +4426,170 @@
       <c r="N31" t="s">
         <v>77</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="37">
         <v>10</v>
       </c>
       <c r="Q31" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="5:20">
-      <c r="H32" s="31"/>
+      <c r="E32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" t="str">
+        <f>E9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="L32" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="M32" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" s="37">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="T32" s="37">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" t="s">
+      <c r="H33" s="31"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
         <v>50</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>51</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>158</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" t="s">
         <v>159</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K34" t="s">
         <v>68</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L34" t="s">
         <v>69</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M34" t="s">
         <v>162</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N34" t="s">
         <v>163</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O34" t="s">
         <v>164</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P34" t="s">
         <v>165</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q34" t="s">
         <v>166</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R34" t="s">
         <v>167</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S34" t="s">
         <v>168</v>
       </c>
-      <c r="T33" t="s">
+      <c r="T34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
         <v>50</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>173</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I36" t="s">
         <v>174</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J36" t="s">
         <v>175</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K36" t="s">
         <v>91</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M36" t="s">
         <v>177</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N36" t="s">
         <v>178</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O36" t="s">
         <v>179</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P36" t="s">
         <v>71</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/choerodon-message-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/choerodon-message-category-lov.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,19 +16,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="188">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -52,7 +46,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -65,7 +58,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -84,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -103,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -122,7 +112,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -154,7 +143,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -173,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -192,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -214,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -235,7 +220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -256,7 +240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -277,7 +260,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -298,7 +280,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -310,7 +291,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -329,7 +309,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -341,7 +320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -360,7 +338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -379,7 +356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -398,7 +374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -417,7 +392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -465,7 +439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -484,7 +457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -503,7 +475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -522,7 +493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -534,7 +504,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -553,7 +522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -572,7 +540,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -592,7 +559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -611,7 +577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -631,7 +596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -650,7 +614,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -662,7 +625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -681,7 +643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -700,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -724,7 +684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -743,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -762,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -781,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -800,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -812,7 +767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -831,7 +785,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -842,7 +795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -863,7 +815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -874,7 +825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -893,7 +843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -912,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -936,7 +884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -955,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -975,7 +921,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -995,7 +940,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1015,7 +959,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1036,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1056,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1091,7 +1032,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1112,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1124,7 +1063,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1143,7 +1081,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1164,7 +1101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1183,7 +1119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1196,7 +1131,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1215,7 +1149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1234,7 +1167,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1253,7 +1185,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1268,7 +1199,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1287,7 +1217,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1306,7 +1235,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1325,7 +1253,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1344,7 +1271,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1360,7 +1286,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1370,7 +1295,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1389,7 +1313,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1405,7 +1328,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1415,7 +1337,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1434,7 +1355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1449,7 +1369,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1468,7 +1387,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,7 +1405,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1507,7 +1424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1531,7 +1447,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1550,7 +1465,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1569,7 +1483,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1589,7 +1502,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1610,7 +1522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1621,7 +1532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1631,7 +1541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1643,7 +1552,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1662,7 +1570,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1681,7 +1588,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1700,7 +1606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1720,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1739,7 +1643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1758,7 +1661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1778,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1797,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1816,7 +1716,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1835,7 +1734,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1855,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1867,7 +1764,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1878,7 +1774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1888,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1900,7 +1794,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1919,7 +1812,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1931,7 +1823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1950,7 +1841,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1970,7 +1860,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2307,6 +2196,30 @@
     <t>部署实例状态通知</t>
   </si>
   <si>
+    <t>MARKET_APP</t>
+  </si>
+  <si>
+    <t>市场应用通知</t>
+  </si>
+  <si>
+    <t>RDUCM_MEMBER</t>
+  </si>
+  <si>
+    <t>代码库权限通知</t>
+  </si>
+  <si>
+    <t>VINDICATOR-FAILED-NOTICE</t>
+  </si>
+  <si>
+    <t>平台重要事件失败通过</t>
+  </si>
+  <si>
+    <t>SMS-CAPTCHA-NOTICE</t>
+  </si>
+  <si>
+    <t>短信验证码</t>
+  </si>
+  <si>
     <t>值集查询视图头表</t>
   </si>
   <si>
@@ -2383,44 +2296,19 @@
   </si>
   <si>
     <t>table_field_width</t>
-  </si>
-  <si>
-    <t>SITE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>RDUCM_MEMBER</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码库权限通知</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MARKET_APP</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场应用通知</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>VINDICATOR-FAILED-NOTICE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台重要事件失败通过</t>
-  </si>
-  <si>
-    <t>平台重要事件失败通过</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2431,31 +2319,36 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2463,7 +2356,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2482,7 +2374,6 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2490,6 +2381,157 @@
       <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2520,14 +2562,12 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2536,21 +2576,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2581,8 +2608,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2683,10 +2896,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2694,6 +3149,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2702,32 +3161,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2737,38 +3208,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2841,9 +3343,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3101,277 +3600,280 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="9" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="8"/>
-      <c r="C1" s="33" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="32" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="35" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="14" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="17" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" ht="52.2">
-      <c r="C9" s="20" t="s">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
-      <c r="C10" s="23" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
-      <c r="C11" s="17" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="17" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="C15" s="25" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="28" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="28" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="28" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="28" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="29" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="32"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="18" t="s">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="32"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
-      <c r="C27" s="30" t="s">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M16" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="G25" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.8333333333333" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="44.4140625" customWidth="1"/>
-    <col min="8" max="8" width="38.08203125" customWidth="1"/>
-    <col min="9" max="9" width="22.9140625" customWidth="1"/>
-    <col min="10" max="10" width="31.4140625" customWidth="1"/>
-    <col min="11" max="11" width="34.33203125" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="14" width="25.83203125" customWidth="1"/>
-    <col min="15" max="15" width="41.08203125" customWidth="1"/>
+    <col min="7" max="7" width="44.4166666666667" customWidth="1"/>
+    <col min="8" max="8" width="38.0833333333333" customWidth="1"/>
+    <col min="9" max="9" width="22.9166666666667" customWidth="1"/>
+    <col min="10" max="10" width="31.4166666666667" customWidth="1"/>
+    <col min="11" max="11" width="34.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="24.3333333333333" customWidth="1"/>
+    <col min="13" max="14" width="25.8333333333333" customWidth="1"/>
+    <col min="15" max="15" width="41.0833333333333" customWidth="1"/>
     <col min="16" max="16" width="15.5" customWidth="1"/>
     <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="20" max="20" width="14.9140625" customWidth="1"/>
+    <col min="20" max="20" width="14.9166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3385,7 +3887,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3467,7 +3969,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="5:22">
       <c r="E8" t="s">
         <v>73</v>
       </c>
@@ -3502,7 +4004,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="5:22">
       <c r="E9" t="s">
         <v>79</v>
       </c>
@@ -3543,7 +4045,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -3605,7 +4107,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="5:20">
       <c r="E12" t="s">
         <v>95</v>
       </c>
@@ -3644,7 +4146,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="5:20">
       <c r="E13" t="s">
         <v>95</v>
       </c>
@@ -3683,7 +4185,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="5:20">
       <c r="E14" t="s">
         <v>95</v>
       </c>
@@ -3722,7 +4224,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="5:20">
       <c r="E15" t="s">
         <v>95</v>
       </c>
@@ -3764,7 +4266,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="5:20">
       <c r="E16" t="s">
         <v>95</v>
       </c>
@@ -3883,8 +4385,8 @@
       <c r="P18" t="s">
         <v>113</v>
       </c>
-      <c r="Q18" s="31" t="s">
-        <v>180</v>
+      <c r="Q18" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="T18" t="s">
         <v>78</v>
@@ -4342,13 +4844,13 @@
       <c r="N29" t="s">
         <v>77</v>
       </c>
-      <c r="P29" s="37">
+      <c r="P29" s="6">
         <v>14</v>
       </c>
       <c r="Q29" t="s">
         <v>99</v>
       </c>
-      <c r="T29" s="37">
+      <c r="T29" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4363,20 +4865,20 @@
       <c r="G30" t="s">
         <v>80</v>
       </c>
-      <c r="H30" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="J30" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="K30" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="L30" s="31" t="s">
-        <v>184</v>
+      <c r="H30" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="M30" t="s">
         <v>77</v>
@@ -4384,13 +4886,13 @@
       <c r="N30" t="s">
         <v>77</v>
       </c>
-      <c r="P30" s="37">
+      <c r="P30" s="6">
         <v>7</v>
       </c>
-      <c r="Q30" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="T30" s="37">
+      <c r="Q30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T30" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4405,20 +4907,20 @@
       <c r="G31" t="s">
         <v>80</v>
       </c>
-      <c r="H31" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="J31" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="K31" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="L31" s="31" t="s">
-        <v>182</v>
+      <c r="H31" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="M31" t="s">
         <v>77</v>
@@ -4426,13 +4928,13 @@
       <c r="N31" t="s">
         <v>77</v>
       </c>
-      <c r="P31" s="37">
+      <c r="P31" s="6">
         <v>10</v>
       </c>
-      <c r="Q31" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="T31" s="37">
+      <c r="Q31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T31" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4447,20 +4949,20 @@
       <c r="G32" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="I32" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="J32" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="K32" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="L32" s="31" t="s">
-        <v>186</v>
+      <c r="H32" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="M32" t="s">
         <v>77</v>
@@ -4468,134 +4970,176 @@
       <c r="N32" t="s">
         <v>77</v>
       </c>
-      <c r="P32" s="37">
+      <c r="P32" s="6">
         <v>15</v>
       </c>
-      <c r="Q32" s="31" t="s">
+      <c r="Q32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="5:20">
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" t="str">
+        <f>E9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" t="s">
+        <v>167</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K35" t="s">
+        <v>68</v>
+      </c>
+      <c r="L35" t="s">
+        <v>69</v>
+      </c>
+      <c r="M35" t="s">
+        <v>170</v>
+      </c>
+      <c r="N35" t="s">
+        <v>171</v>
+      </c>
+      <c r="O35" t="s">
+        <v>172</v>
+      </c>
+      <c r="P35" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>174</v>
+      </c>
+      <c r="R35" t="s">
+        <v>175</v>
+      </c>
+      <c r="S35" t="s">
+        <v>176</v>
+      </c>
+      <c r="T35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="T32" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="H33" s="31"/>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" t="s">
-        <v>158</v>
-      </c>
-      <c r="H34" t="s">
-        <v>159</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K34" t="s">
-        <v>68</v>
-      </c>
-      <c r="L34" t="s">
-        <v>69</v>
-      </c>
-      <c r="M34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N34" t="s">
-        <v>163</v>
-      </c>
-      <c r="O34" t="s">
-        <v>164</v>
-      </c>
-      <c r="P34" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>166</v>
-      </c>
-      <c r="R34" t="s">
-        <v>167</v>
-      </c>
-      <c r="S34" t="s">
+      <c r="G37" t="s">
+        <v>181</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="T34" t="s">
+      <c r="I37" t="s">
+        <v>182</v>
+      </c>
+      <c r="J37" t="s">
+        <v>183</v>
+      </c>
+      <c r="K37" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M37" t="s">
+        <v>185</v>
+      </c>
+      <c r="N37" t="s">
+        <v>186</v>
+      </c>
+      <c r="O37" t="s">
+        <v>187</v>
+      </c>
+      <c r="P37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G36" t="s">
-        <v>173</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I36" t="s">
-        <v>174</v>
-      </c>
-      <c r="J36" t="s">
-        <v>175</v>
-      </c>
-      <c r="K36" t="s">
-        <v>91</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="M36" t="s">
-        <v>177</v>
-      </c>
-      <c r="N36" t="s">
-        <v>178</v>
-      </c>
-      <c r="O36" t="s">
-        <v>179</v>
-      </c>
-      <c r="P36" t="s">
-        <v>71</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/choerodon-message-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/choerodon-message-category-lov.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="192">
   <si>
     <r>
       <rPr>
@@ -2218,6 +2218,18 @@
   </si>
   <si>
     <t>短信验证码</t>
+  </si>
+  <si>
+    <t>SITE-CRETAE-USER</t>
+  </si>
+  <si>
+    <t>平台层创建用户</t>
+  </si>
+  <si>
+    <t>ORG-CREATE-USER</t>
+  </si>
+  <si>
+    <t>组织层用户创建通知</t>
   </si>
   <si>
     <t>值集查询视图头表</t>
@@ -2308,7 +2320,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2337,12 +2349,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2384,51 +2390,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2437,6 +2414,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2451,36 +2435,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2495,19 +2455,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2527,8 +2486,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2610,7 +2616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2622,25 +2628,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2652,37 +2682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2712,24 +2718,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2742,19 +2730,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2766,31 +2784,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2897,15 +2903,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2917,15 +2914,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2948,18 +2936,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2994,162 +2980,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3159,46 +3165,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3211,7 +3216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3617,7 +3622,7 @@
     <col min="1" max="1" width="15.5833333333333" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
     <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="9" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
     <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
@@ -3631,79 +3636,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="13"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3711,56 +3716,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3770,64 +3775,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3850,10 +3855,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="H18" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -5022,72 +5027,94 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:8">
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
+    <row r="34" spans="5:20">
+      <c r="E34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" t="str">
+        <f>E9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="I34" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="J34" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6">
+        <v>17</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:20">
+      <c r="E35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" t="str">
+        <f>E9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="I35" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G35" t="s">
-        <v>166</v>
-      </c>
-      <c r="H35" t="s">
-        <v>167</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K35" t="s">
-        <v>68</v>
-      </c>
-      <c r="L35" t="s">
-        <v>69</v>
-      </c>
-      <c r="M35" t="s">
-        <v>170</v>
-      </c>
-      <c r="N35" t="s">
-        <v>171</v>
-      </c>
-      <c r="O35" t="s">
-        <v>172</v>
-      </c>
-      <c r="P35" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>174</v>
-      </c>
-      <c r="R35" t="s">
-        <v>175</v>
-      </c>
-      <c r="S35" t="s">
-        <v>176</v>
-      </c>
-      <c r="T35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="J35" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="T35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -5095,45 +5122,107 @@
         <v>51</v>
       </c>
       <c r="C37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" t="s">
+        <v>170</v>
+      </c>
+      <c r="H37" t="s">
+        <v>171</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K37" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37" t="s">
+        <v>69</v>
+      </c>
+      <c r="M37" t="s">
+        <v>174</v>
+      </c>
+      <c r="N37" t="s">
+        <v>175</v>
+      </c>
+      <c r="O37" t="s">
+        <v>176</v>
+      </c>
+      <c r="P37" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="Q37" t="s">
         <v>178</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="R37" t="s">
         <v>179</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="S37" t="s">
         <v>180</v>
       </c>
-      <c r="G37" t="s">
+      <c r="T37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
         <v>181</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="D39" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J37" t="s">
+      <c r="E39" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K37" t="s">
+      <c r="F39" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" t="s">
+        <v>185</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I39" t="s">
+        <v>186</v>
+      </c>
+      <c r="J39" t="s">
+        <v>187</v>
+      </c>
+      <c r="K39" t="s">
         <v>91</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="M37" t="s">
-        <v>185</v>
-      </c>
-      <c r="N37" t="s">
-        <v>186</v>
-      </c>
-      <c r="O37" t="s">
-        <v>187</v>
-      </c>
-      <c r="P37" t="s">
+      <c r="L39" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="M39" t="s">
+        <v>189</v>
+      </c>
+      <c r="N39" t="s">
+        <v>190</v>
+      </c>
+      <c r="O39" t="s">
+        <v>191</v>
+      </c>
+      <c r="P39" t="s">
         <v>71</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/choerodon-message-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/choerodon-message-category-lov.xlsx
@@ -2220,7 +2220,7 @@
     <t>短信验证码</t>
   </si>
   <si>
-    <t>SITE-CRETAE-USER</t>
+    <t>SITE-CREATE-USER</t>
   </si>
   <si>
     <t>平台层创建用户</t>
@@ -2315,10 +2315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2396,16 +2396,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2420,7 +2451,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2435,44 +2488,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2488,9 +2504,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2502,32 +2518,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2535,6 +2528,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2616,6 +2616,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2623,6 +2629,108 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2640,7 +2748,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2652,151 +2796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2904,6 +2904,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2936,32 +2969,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2980,36 +3000,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3018,133 +3018,133 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3857,8 +3857,8 @@
   <sheetPr/>
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H18" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="G18" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/choerodon-message-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/choerodon-message-category-lov.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="190">
   <si>
     <r>
       <rPr>
@@ -2218,12 +2218,6 @@
   </si>
   <si>
     <t>短信验证码</t>
-  </si>
-  <si>
-    <t>SITE-CREATE-USER</t>
-  </si>
-  <si>
-    <t>平台层创建用户</t>
   </si>
   <si>
     <t>ORG-CREATE-USER</t>
@@ -2315,10 +2309,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2390,9 +2384,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2411,40 +2443,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2471,6 +2471,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2480,33 +2488,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2518,16 +2511,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2616,7 +2610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2628,19 +2628,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2658,19 +2670,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2682,13 +2742,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2700,37 +2778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2742,61 +2790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2903,50 +2897,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2969,6 +2926,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -2977,11 +2958,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3003,148 +2997,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3855,10 +3849,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G18" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="G34" sqref="$A34:$XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -5060,169 +5054,127 @@
         <v>0</v>
       </c>
       <c r="P34" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T34" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="5:20">
-      <c r="E35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" t="str">
-        <f>E9</f>
-        <v>hpfm_lov-9</v>
-      </c>
-      <c r="G35" t="s">
-        <v>80</v>
-      </c>
-      <c r="H35" s="5" t="s">
+    <row r="35" spans="8:8">
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
         <v>164</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="D36" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="J35" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="P35" s="6">
-        <v>18</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="T35" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:8">
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
+      <c r="E36" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" t="s">
+        <v>168</v>
+      </c>
+      <c r="H36" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M36" t="s">
+        <v>172</v>
+      </c>
+      <c r="N36" t="s">
+        <v>173</v>
+      </c>
+      <c r="O36" t="s">
+        <v>174</v>
+      </c>
+      <c r="P36" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>176</v>
+      </c>
+      <c r="R36" t="s">
+        <v>177</v>
+      </c>
+      <c r="S36" t="s">
+        <v>178</v>
+      </c>
+      <c r="T36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
         <v>50</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>51</v>
       </c>
-      <c r="C37" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="C38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H37" t="s">
-        <v>171</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K37" t="s">
-        <v>68</v>
-      </c>
-      <c r="L37" t="s">
-        <v>69</v>
-      </c>
-      <c r="M37" t="s">
-        <v>174</v>
-      </c>
-      <c r="N37" t="s">
-        <v>175</v>
-      </c>
-      <c r="O37" t="s">
-        <v>176</v>
-      </c>
-      <c r="P37" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>178</v>
-      </c>
-      <c r="R37" t="s">
-        <v>179</v>
-      </c>
-      <c r="S37" t="s">
-        <v>180</v>
-      </c>
-      <c r="T37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" t="s">
-        <v>181</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="I38" t="s">
         <v>184</v>
       </c>
-      <c r="G39" t="s">
+      <c r="J38" t="s">
         <v>185</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="K38" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="J39" t="s">
+      <c r="M38" t="s">
         <v>187</v>
       </c>
-      <c r="K39" t="s">
-        <v>91</v>
-      </c>
-      <c r="L39" s="3" t="s">
+      <c r="N38" t="s">
         <v>188</v>
       </c>
-      <c r="M39" t="s">
+      <c r="O38" t="s">
         <v>189</v>
       </c>
-      <c r="N39" t="s">
-        <v>190</v>
-      </c>
-      <c r="O39" t="s">
-        <v>191</v>
-      </c>
-      <c r="P39" t="s">
+      <c r="P38" t="s">
         <v>71</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/choerodon-message-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/choerodon-message-category-lov.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -16,18 +21,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="193">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -46,6 +52,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -58,6 +65,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -76,6 +84,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -94,6 +103,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -112,6 +122,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -143,6 +154,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -161,6 +173,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -179,6 +192,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -200,6 +214,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -220,6 +235,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -240,6 +256,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -260,6 +277,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -280,6 +298,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -291,6 +310,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -309,6 +329,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -320,6 +341,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -338,6 +360,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -356,6 +379,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -374,6 +398,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -392,6 +417,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -439,6 +465,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -457,6 +484,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -475,6 +503,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -493,6 +522,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -504,6 +534,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -522,6 +553,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -540,6 +572,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -559,6 +592,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -577,6 +611,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -596,6 +631,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -614,6 +650,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -625,6 +662,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -643,6 +681,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -661,6 +700,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -684,6 +724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -702,6 +743,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -720,6 +762,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -738,6 +781,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -756,6 +800,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -767,6 +812,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -785,6 +831,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -795,6 +842,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -815,6 +863,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -825,6 +874,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -843,6 +893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -861,6 +912,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -884,6 +936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -902,6 +955,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -921,6 +975,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -940,6 +995,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -959,6 +1015,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -979,6 +1036,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -998,6 +1056,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1032,6 +1091,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1052,6 +1112,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1063,6 +1124,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1081,6 +1143,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1101,6 +1164,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1119,6 +1183,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1131,6 +1196,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1149,6 +1215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1167,6 +1234,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1185,6 +1253,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1199,6 +1268,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1217,6 +1287,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1235,6 +1306,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1253,6 +1325,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1271,6 +1344,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1286,6 +1360,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1295,6 +1370,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1313,6 +1389,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1328,6 +1405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1337,6 +1415,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1355,6 +1434,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1369,6 +1449,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1387,6 +1468,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1405,6 +1487,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1424,6 +1507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1447,6 +1531,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1465,6 +1550,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1483,6 +1569,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1502,6 +1589,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1522,6 +1610,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1532,6 +1621,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1541,6 +1631,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1552,6 +1643,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1570,6 +1662,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1588,6 +1681,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1606,6 +1700,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1625,6 +1720,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1643,6 +1739,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1661,6 +1758,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1680,6 +1778,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1698,6 +1797,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1716,6 +1816,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1734,6 +1835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1753,6 +1855,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1764,6 +1867,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1774,6 +1878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1783,6 +1888,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1794,6 +1900,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1812,6 +1919,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1823,6 +1931,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1841,6 +1950,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1860,6 +1970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2302,19 +2413,25 @@
   </si>
   <si>
     <t>table_field_width</t>
+  </si>
+  <si>
+    <t>ADD-OR-IMPORT-USER-SITE</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>SITE</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>SITE</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2325,25 +2442,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2383,157 +2500,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -2562,12 +2528,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2576,8 +2544,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2608,194 +2611,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2896,254 +2713,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3160,20 +2735,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3207,9 +2770,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3217,59 +2777,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3342,6 +2871,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3599,280 +3131,277 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="15" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="19" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="25" t="s">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="52.2">
+      <c r="C9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="28" t="s">
+    <row r="10" spans="1:8" ht="52.2">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="22" t="s">
+    <row r="11" spans="1:8" ht="69.599999999999994">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="22" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="30" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.799999999999997">
+      <c r="C15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="34" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="34" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="34" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="35" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="36" t="s">
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
+      <c r="C27" s="31" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:W38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G18" workbookViewId="0">
-      <selection activeCell="G34" sqref="$A34:$XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="F18" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="28.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="44.4166666666667" customWidth="1"/>
-    <col min="8" max="8" width="38.0833333333333" customWidth="1"/>
-    <col min="9" max="9" width="22.9166666666667" customWidth="1"/>
-    <col min="10" max="10" width="31.4166666666667" customWidth="1"/>
-    <col min="11" max="11" width="34.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="24.3333333333333" customWidth="1"/>
-    <col min="13" max="14" width="25.8333333333333" customWidth="1"/>
-    <col min="15" max="15" width="41.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="44.4140625" customWidth="1"/>
+    <col min="8" max="8" width="38.08203125" customWidth="1"/>
+    <col min="9" max="9" width="22.9140625" customWidth="1"/>
+    <col min="10" max="10" width="31.4140625" customWidth="1"/>
+    <col min="11" max="11" width="34.33203125" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="14" width="25.83203125" customWidth="1"/>
+    <col min="15" max="15" width="41.08203125" customWidth="1"/>
     <col min="16" max="16" width="15.5" customWidth="1"/>
     <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="20" max="20" width="14.9166666666667" customWidth="1"/>
+    <col min="20" max="20" width="14.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3886,7 +3415,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:23">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3968,7 +3497,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="5:22">
+    <row r="8" spans="1:23">
       <c r="E8" t="s">
         <v>73</v>
       </c>
@@ -4003,7 +3532,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="5:22">
+    <row r="9" spans="1:23">
       <c r="E9" t="s">
         <v>79</v>
       </c>
@@ -4044,7 +3573,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4106,7 +3635,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="5:20">
+    <row r="12" spans="1:23">
       <c r="E12" t="s">
         <v>95</v>
       </c>
@@ -4145,7 +3674,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="5:20">
+    <row r="13" spans="1:23">
       <c r="E13" t="s">
         <v>95</v>
       </c>
@@ -4184,7 +3713,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="5:20">
+    <row r="14" spans="1:23">
       <c r="E14" t="s">
         <v>95</v>
       </c>
@@ -4223,7 +3752,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="5:20">
+    <row r="15" spans="1:23">
       <c r="E15" t="s">
         <v>95</v>
       </c>
@@ -4265,7 +3794,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="5:20">
+    <row r="16" spans="1:23">
       <c r="E16" t="s">
         <v>95</v>
       </c>
@@ -4888,8 +4417,8 @@
       <c r="P30" s="6">
         <v>7</v>
       </c>
-      <c r="Q30" s="5" t="s">
-        <v>96</v>
+      <c r="Q30" s="37" t="s">
+        <v>191</v>
       </c>
       <c r="T30" s="6">
         <v>1</v>
@@ -4979,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:20">
+    <row r="33" spans="1:20">
       <c r="E33" t="s">
         <v>95</v>
       </c>
@@ -5021,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="5:20">
+    <row r="34" spans="1:20">
       <c r="E34" t="s">
         <v>95</v>
       </c>
@@ -5063,124 +4592,166 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="8:8">
-      <c r="H35" s="5"/>
+    <row r="35" spans="1:20">
+      <c r="E35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" t="str">
+        <f>值集数据!$E$9</f>
+        <v>hpfm_lov-9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="I35" t="s">
+        <v>148</v>
+      </c>
+      <c r="J35" t="s">
+        <v>148</v>
+      </c>
+      <c r="K35" t="s">
+        <v>149</v>
+      </c>
+      <c r="L35" t="s">
+        <v>149</v>
+      </c>
+      <c r="M35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q35" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="T35" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" t="s">
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
         <v>50</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>51</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>168</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H37" t="s">
         <v>169</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K37" t="s">
         <v>68</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L37" t="s">
         <v>69</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M37" t="s">
         <v>172</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N37" t="s">
         <v>173</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O37" t="s">
         <v>174</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P37" t="s">
         <v>175</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q37" t="s">
         <v>176</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R37" t="s">
         <v>177</v>
       </c>
-      <c r="S36" t="s">
+      <c r="S37" t="s">
         <v>178</v>
       </c>
-      <c r="T36" t="s">
+      <c r="T37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
-      <c r="A38" t="s">
+    <row r="39" spans="1:20">
+      <c r="A39" t="s">
         <v>50</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>51</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>179</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>183</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I39" t="s">
         <v>184</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J39" t="s">
         <v>185</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K39" t="s">
         <v>91</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M39" t="s">
         <v>187</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N39" t="s">
         <v>188</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O39" t="s">
         <v>189</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P39" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_message/hzero_platform/choerodon-message-category-lov.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_platform/choerodon-message-category-lov.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-message\src\main\resources\script\db\init-data\hzero_message\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9527" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,19 +16,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -52,7 +46,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -65,7 +58,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -84,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -103,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -122,7 +112,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -154,7 +143,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -173,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -192,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -214,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -235,7 +220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -256,7 +240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -277,7 +260,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -298,7 +280,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -310,7 +291,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -329,7 +309,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -341,7 +320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -360,7 +338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -379,7 +356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -398,7 +374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -417,7 +392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -465,7 +439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -484,7 +457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -503,7 +475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -522,7 +493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -534,7 +504,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -553,7 +522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -572,7 +540,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -592,7 +559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -611,7 +577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -631,7 +596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -650,7 +614,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -662,7 +625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -681,7 +643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -700,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -724,7 +684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -743,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -762,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -781,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -800,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -812,7 +767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -831,7 +785,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -842,7 +795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -863,7 +815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -874,7 +825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -893,7 +843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -912,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -936,7 +884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -955,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -975,7 +921,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -995,7 +940,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1015,7 +959,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1036,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1056,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1091,7 +1032,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1112,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1124,7 +1063,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1143,7 +1081,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1164,7 +1101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1183,7 +1119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1196,7 +1131,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1215,7 +1149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1234,7 +1167,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1253,7 +1185,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1268,7 +1199,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1287,7 +1217,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1306,7 +1235,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1325,7 +1253,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1344,7 +1271,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1360,7 +1286,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1370,7 +1295,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1389,7 +1313,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1405,7 +1328,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1415,7 +1337,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1434,7 +1355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1449,7 +1369,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1468,7 +1387,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,7 +1405,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1507,7 +1424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1531,7 +1447,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1550,7 +1465,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1569,7 +1483,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1589,7 +1502,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1610,7 +1522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1621,7 +1532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1631,7 +1541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1643,7 +1552,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1662,7 +1570,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1681,7 +1588,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1700,7 +1606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1720,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1739,7 +1643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1758,7 +1661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1778,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1797,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1816,7 +1716,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1835,7 +1734,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1855,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1867,7 +1764,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1878,7 +1774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1888,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1900,7 +1794,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1919,7 +1812,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1931,7 +1823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1950,7 +1841,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1970,7 +1860,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2220,10 +2109,10 @@
     <t>ISSUE-STATUS-CHANGE-NOTICE</t>
   </si>
   <si>
-    <t>敏捷通知</t>
-  </si>
-  <si>
-    <t>敏捷管理过程中问题项的处理状态变化：创建、分配、已解决</t>
+    <t>协作消息</t>
+  </si>
+  <si>
+    <t>协作管理过程中问题项的处理状态变化：创建、分配、已解决</t>
   </si>
   <si>
     <t>7</t>
@@ -2337,6 +2226,9 @@
     <t>组织层用户创建通知</t>
   </si>
   <si>
+    <t>ADD-OR-IMPORT-USER-SITE</t>
+  </si>
+  <si>
     <t>值集查询视图头表</t>
   </si>
   <si>
@@ -2413,25 +2305,19 @@
   </si>
   <si>
     <t>table_field_width</t>
-  </si>
-  <si>
-    <t>ADD-OR-IMPORT-USER-SITE</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>SITE</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>SITE</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2442,25 +2328,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2500,6 +2392,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -2521,6 +2570,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2528,14 +2584,18 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2544,43 +2604,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2611,8 +2636,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2713,10 +2924,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2725,6 +3178,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2735,32 +3189,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2770,36 +3236,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2868,14 +3368,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3136,272 +3628,276 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="9"/>
-      <c r="C1" s="32" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="33" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="35" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="15" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="18" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:8" ht="52.2">
-      <c r="C9" s="21" t="s">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
-      <c r="C10" s="24" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
-      <c r="C11" s="18" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="18" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="C15" s="26" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="29" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="29" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="29" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="29" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="30" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="33"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="19" t="s">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="33"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
-      <c r="C27" s="31" t="s">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F18" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.8333333333333" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="44.4140625" customWidth="1"/>
-    <col min="8" max="8" width="38.08203125" customWidth="1"/>
-    <col min="9" max="9" width="22.9140625" customWidth="1"/>
-    <col min="10" max="10" width="31.4140625" customWidth="1"/>
-    <col min="11" max="11" width="34.33203125" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" customWidth="1"/>
-    <col min="13" max="14" width="25.83203125" customWidth="1"/>
-    <col min="15" max="15" width="41.08203125" customWidth="1"/>
+    <col min="7" max="7" width="44.4166666666667" customWidth="1"/>
+    <col min="8" max="8" width="38.0833333333333" customWidth="1"/>
+    <col min="9" max="9" width="22.9166666666667" customWidth="1"/>
+    <col min="10" max="10" width="31.4166666666667" customWidth="1"/>
+    <col min="11" max="11" width="34.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="24.3333333333333" customWidth="1"/>
+    <col min="13" max="14" width="25.8333333333333" customWidth="1"/>
+    <col min="15" max="15" width="41.0833333333333" customWidth="1"/>
     <col min="16" max="16" width="15.5" customWidth="1"/>
     <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="20" max="20" width="14.9140625" customWidth="1"/>
+    <col min="20" max="20" width="14.9166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3415,7 +3911,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3497,7 +3993,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="5:22">
       <c r="E8" t="s">
         <v>73</v>
       </c>
@@ -3532,7 +4028,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="5:22">
       <c r="E9" t="s">
         <v>79</v>
       </c>
@@ -3573,7 +4069,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -3635,7 +4131,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="5:20">
       <c r="E12" t="s">
         <v>95</v>
       </c>
@@ -3674,7 +4170,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="5:20">
       <c r="E13" t="s">
         <v>95</v>
       </c>
@@ -3713,7 +4209,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="5:20">
       <c r="E14" t="s">
         <v>95</v>
       </c>
@@ -3752,7 +4248,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="5:20">
       <c r="E15" t="s">
         <v>95</v>
       </c>
@@ -3794,7 +4290,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="5:20">
       <c r="E16" t="s">
         <v>95</v>
       </c>
@@ -4372,13 +4868,13 @@
       <c r="N29" t="s">
         <v>77</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="7">
         <v>14</v>
       </c>
       <c r="Q29" t="s">
         <v>99</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T29" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4414,13 +4910,13 @@
       <c r="N30" t="s">
         <v>77</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="7">
         <v>7</v>
       </c>
-      <c r="Q30" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="T30" s="6">
+      <c r="Q30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="T30" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4456,13 +4952,13 @@
       <c r="N31" t="s">
         <v>77</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="7">
         <v>10</v>
       </c>
       <c r="Q31" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="T31" s="6">
+      <c r="T31" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4498,17 +4994,17 @@
       <c r="N32" t="s">
         <v>77</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="7">
         <v>15</v>
       </c>
       <c r="Q32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="T32" s="6">
+      <c r="T32" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="5:20">
       <c r="E33" t="s">
         <v>95</v>
       </c>
@@ -4540,17 +5036,17 @@
       <c r="N33">
         <v>0</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33" s="7">
         <v>16</v>
       </c>
       <c r="Q33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="T33" s="6">
+      <c r="T33" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="5:20">
       <c r="E34" t="s">
         <v>95</v>
       </c>
@@ -4582,17 +5078,17 @@
       <c r="N34">
         <v>0</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P34" s="7">
         <v>18</v>
       </c>
       <c r="Q34" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="T34" s="6">
+      <c r="T34" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="5:20">
       <c r="E35" t="s">
         <v>95</v>
       </c>
@@ -4603,8 +5099,8 @@
       <c r="G35" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="37" t="s">
-        <v>190</v>
+      <c r="H35" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="I35" t="s">
         <v>148</v>
@@ -4627,14 +5123,14 @@
       <c r="P35" t="s">
         <v>150</v>
       </c>
-      <c r="Q35" s="37" t="s">
-        <v>192</v>
+      <c r="Q35" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="T35" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="8:8">
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:20">
@@ -4645,28 +5141,28 @@
         <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K37" t="s">
         <v>68</v>
@@ -4675,31 +5171,31 @@
         <v>69</v>
       </c>
       <c r="M37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="R37" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S37" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="T37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -4707,51 +5203,51 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K39" t="s">
         <v>91</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P39" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>